--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2241.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2241.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.329134560617115</v>
+        <v>1.097780108451843</v>
       </c>
       <c r="B1">
-        <v>2.964939312271128</v>
+        <v>2.486933469772339</v>
       </c>
       <c r="C1">
-        <v>7.954464364894214</v>
+        <v>6.329222679138184</v>
       </c>
       <c r="D1">
-        <v>1.929873765376734</v>
+        <v>2.20048999786377</v>
       </c>
       <c r="E1">
-        <v>1.06655891872896</v>
+        <v>1.267274856567383</v>
       </c>
     </row>
   </sheetData>
